--- a/Kode/Server2/Logs/lora_node1/2020-05-13.xlsx
+++ b/Kode/Server2/Logs/lora_node1/2020-05-13.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F898"/>
+  <dimension ref="A1:F1244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18326,6 +18326,6926 @@
         <v>0.008999999999999999</v>
       </c>
     </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>24</v>
+      </c>
+      <c r="B899" s="1" t="n">
+        <v>0.7396067231828704</v>
+      </c>
+      <c r="C899" t="n">
+        <v>94</v>
+      </c>
+      <c r="D899" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E899" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0.009299999999999999</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>25</v>
+      </c>
+      <c r="B900" s="1" t="n">
+        <v>0.7402980171296296</v>
+      </c>
+      <c r="C900" t="n">
+        <v>94</v>
+      </c>
+      <c r="D900" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E900" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0.01188</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>26</v>
+      </c>
+      <c r="B901" s="1" t="n">
+        <v>0.7409922894444444</v>
+      </c>
+      <c r="C901" t="n">
+        <v>94</v>
+      </c>
+      <c r="D901" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E901" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0.01224</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>27</v>
+      </c>
+      <c r="B902" s="1" t="n">
+        <v>0.7416860147685185</v>
+      </c>
+      <c r="C902" t="n">
+        <v>94</v>
+      </c>
+      <c r="D902" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E902" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0.01296</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>28</v>
+      </c>
+      <c r="B903" s="1" t="n">
+        <v>0.7423801265856481</v>
+      </c>
+      <c r="C903" t="n">
+        <v>94</v>
+      </c>
+      <c r="D903" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E903" t="n">
+        <v>0.5549999999999999</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0.01332</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>29</v>
+      </c>
+      <c r="B904" s="1" t="n">
+        <v>0.7430742840740741</v>
+      </c>
+      <c r="C904" t="n">
+        <v>94</v>
+      </c>
+      <c r="D904" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E904" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0.01368</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>30</v>
+      </c>
+      <c r="B905" s="1" t="n">
+        <v>0.7437684522222222</v>
+      </c>
+      <c r="C905" t="n">
+        <v>94</v>
+      </c>
+      <c r="D905" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E905" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0.01404</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>31</v>
+      </c>
+      <c r="B906" s="1" t="n">
+        <v>0.74446259</v>
+      </c>
+      <c r="C906" t="n">
+        <v>94</v>
+      </c>
+      <c r="D906" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E906" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>32</v>
+      </c>
+      <c r="B907" s="1" t="n">
+        <v>0.7451568549305555</v>
+      </c>
+      <c r="C907" t="n">
+        <v>94</v>
+      </c>
+      <c r="D907" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E907" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.01476</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>33</v>
+      </c>
+      <c r="B908" s="1" t="n">
+        <v>0.7458505601157407</v>
+      </c>
+      <c r="C908" t="n">
+        <v>94</v>
+      </c>
+      <c r="D908" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E908" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.01476</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>34</v>
+      </c>
+      <c r="B909" s="1" t="n">
+        <v>0.7465445683101852</v>
+      </c>
+      <c r="C909" t="n">
+        <v>94</v>
+      </c>
+      <c r="D909" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E909" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0.01476</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>35</v>
+      </c>
+      <c r="B910" s="1" t="n">
+        <v>0.7472387201157408</v>
+      </c>
+      <c r="C910" t="n">
+        <v>94</v>
+      </c>
+      <c r="D910" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E910" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.01764</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>36</v>
+      </c>
+      <c r="B911" s="1" t="n">
+        <v>0.7479328769675926</v>
+      </c>
+      <c r="C911" t="n">
+        <v>94</v>
+      </c>
+      <c r="D911" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E911" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.01848</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>37</v>
+      </c>
+      <c r="B912" s="1" t="n">
+        <v>0.7486271032407407</v>
+      </c>
+      <c r="C912" t="n">
+        <v>94</v>
+      </c>
+      <c r="D912" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E912" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0.01848</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>38</v>
+      </c>
+      <c r="B913" s="1" t="n">
+        <v>0.7493207412847223</v>
+      </c>
+      <c r="C913" t="n">
+        <v>94</v>
+      </c>
+      <c r="D913" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E913" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0.01806</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>39</v>
+      </c>
+      <c r="B914" s="1" t="n">
+        <v>0.7500147603125</v>
+      </c>
+      <c r="C914" t="n">
+        <v>94</v>
+      </c>
+      <c r="D914" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E914" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0.01806</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>41</v>
+      </c>
+      <c r="B915" s="1" t="n">
+        <v>0.7514031335532407</v>
+      </c>
+      <c r="C915" t="n">
+        <v>94</v>
+      </c>
+      <c r="D915" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E915" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0.01974</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>42</v>
+      </c>
+      <c r="B916" s="1" t="n">
+        <v>0.7520972902314815</v>
+      </c>
+      <c r="C916" t="n">
+        <v>94</v>
+      </c>
+      <c r="D916" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E916" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.01932</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>43</v>
+      </c>
+      <c r="B917" s="1" t="n">
+        <v>0.7527913828356481</v>
+      </c>
+      <c r="C917" t="n">
+        <v>94</v>
+      </c>
+      <c r="D917" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E917" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0.0189</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>44</v>
+      </c>
+      <c r="B918" s="1" t="n">
+        <v>0.7534853079976852</v>
+      </c>
+      <c r="C918" t="n">
+        <v>94</v>
+      </c>
+      <c r="D918" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E918" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0.01806</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>45</v>
+      </c>
+      <c r="B919" s="1" t="n">
+        <v>0.7541798206134259</v>
+      </c>
+      <c r="C919" t="n">
+        <v>94</v>
+      </c>
+      <c r="D919" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E919" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0.01764</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>46</v>
+      </c>
+      <c r="B920" s="1" t="n">
+        <v>0.7548759046296296</v>
+      </c>
+      <c r="C920" t="n">
+        <v>94</v>
+      </c>
+      <c r="D920" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E920" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0.01764</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>47</v>
+      </c>
+      <c r="B921" s="1" t="n">
+        <v>0.7555678937962963</v>
+      </c>
+      <c r="C921" t="n">
+        <v>94</v>
+      </c>
+      <c r="D921" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E921" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>48</v>
+      </c>
+      <c r="B922" s="1" t="n">
+        <v>0.7562616471527778</v>
+      </c>
+      <c r="C922" t="n">
+        <v>94</v>
+      </c>
+      <c r="D922" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E922" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>49</v>
+      </c>
+      <c r="B923" s="1" t="n">
+        <v>0.7569555980092593</v>
+      </c>
+      <c r="C923" t="n">
+        <v>94</v>
+      </c>
+      <c r="D923" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E923" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0.01368</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>50</v>
+      </c>
+      <c r="B924" s="1" t="n">
+        <v>0.7576497436458334</v>
+      </c>
+      <c r="C924" t="n">
+        <v>94</v>
+      </c>
+      <c r="D924" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E924" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0.01368</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>51</v>
+      </c>
+      <c r="B925" s="1" t="n">
+        <v>0.7583442232523148</v>
+      </c>
+      <c r="C925" t="n">
+        <v>94</v>
+      </c>
+      <c r="D925" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E925" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0.01368</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>52</v>
+      </c>
+      <c r="B926" s="1" t="n">
+        <v>0.7590382552430556</v>
+      </c>
+      <c r="C926" t="n">
+        <v>94</v>
+      </c>
+      <c r="D926" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E926" t="n">
+        <v>0.5549999999999999</v>
+      </c>
+      <c r="F926" t="n">
+        <v>0.01332</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>53</v>
+      </c>
+      <c r="B927" s="1" t="n">
+        <v>0.7597320997222222</v>
+      </c>
+      <c r="C927" t="n">
+        <v>94</v>
+      </c>
+      <c r="D927" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E927" t="n">
+        <v>0.5549999999999999</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0.01332</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>54</v>
+      </c>
+      <c r="B928" s="1" t="n">
+        <v>0.7604263144444444</v>
+      </c>
+      <c r="C928" t="n">
+        <v>94</v>
+      </c>
+      <c r="D928" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E928" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0.01368</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>55</v>
+      </c>
+      <c r="B929" s="1" t="n">
+        <v>0.7611202901273149</v>
+      </c>
+      <c r="C929" t="n">
+        <v>94</v>
+      </c>
+      <c r="D929" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E929" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0.01368</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>56</v>
+      </c>
+      <c r="B930" s="1" t="n">
+        <v>0.7618156722916666</v>
+      </c>
+      <c r="C930" t="n">
+        <v>94</v>
+      </c>
+      <c r="D930" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E930" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F930" t="n">
+        <v>0.00432</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>57</v>
+      </c>
+      <c r="B931" s="1" t="n">
+        <v>0.7625081008101852</v>
+      </c>
+      <c r="C931" t="n">
+        <v>94</v>
+      </c>
+      <c r="D931" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E931" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F931" t="n">
+        <v>0.00384</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>58</v>
+      </c>
+      <c r="B932" s="1" t="n">
+        <v>0.7632021596643519</v>
+      </c>
+      <c r="C932" t="n">
+        <v>94</v>
+      </c>
+      <c r="D932" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E932" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0.00336</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>59</v>
+      </c>
+      <c r="B933" s="1" t="n">
+        <v>0.7638962024884259</v>
+      </c>
+      <c r="C933" t="n">
+        <v>94</v>
+      </c>
+      <c r="D933" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E933" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F933" t="n">
+        <v>0.0036</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>60</v>
+      </c>
+      <c r="B934" s="1" t="n">
+        <v>0.7645908248611111</v>
+      </c>
+      <c r="C934" t="n">
+        <v>94</v>
+      </c>
+      <c r="D934" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E934" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F934" t="n">
+        <v>0.00336</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>61</v>
+      </c>
+      <c r="B935" s="1" t="n">
+        <v>0.7652845087962964</v>
+      </c>
+      <c r="C935" t="n">
+        <v>94</v>
+      </c>
+      <c r="D935" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E935" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F935" t="n">
+        <v>0.00234</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>62</v>
+      </c>
+      <c r="B936" s="1" t="n">
+        <v>0.7659787821759259</v>
+      </c>
+      <c r="C936" t="n">
+        <v>94</v>
+      </c>
+      <c r="D936" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E936" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F936" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>63</v>
+      </c>
+      <c r="B937" s="1" t="n">
+        <v>0.7666724299189814</v>
+      </c>
+      <c r="C937" t="n">
+        <v>94</v>
+      </c>
+      <c r="D937" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E937" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F937" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>64</v>
+      </c>
+      <c r="B938" s="1" t="n">
+        <v>0.7673668691203703</v>
+      </c>
+      <c r="C938" t="n">
+        <v>94</v>
+      </c>
+      <c r="D938" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E938" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F938" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>65</v>
+      </c>
+      <c r="B939" s="1" t="n">
+        <v>0.7680612191087963</v>
+      </c>
+      <c r="C939" t="n">
+        <v>94</v>
+      </c>
+      <c r="D939" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E939" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F939" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>66</v>
+      </c>
+      <c r="B940" s="1" t="n">
+        <v>0.7687555959722222</v>
+      </c>
+      <c r="C940" t="n">
+        <v>94</v>
+      </c>
+      <c r="D940" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E940" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F940" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>67</v>
+      </c>
+      <c r="B941" s="1" t="n">
+        <v>0.7694490600347222</v>
+      </c>
+      <c r="C941" t="n">
+        <v>94</v>
+      </c>
+      <c r="D941" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E941" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>68</v>
+      </c>
+      <c r="B942" s="1" t="n">
+        <v>0.7701432174189815</v>
+      </c>
+      <c r="C942" t="n">
+        <v>94</v>
+      </c>
+      <c r="D942" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E942" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0.00162</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>69</v>
+      </c>
+      <c r="B943" s="1" t="n">
+        <v>0.770836980173611</v>
+      </c>
+      <c r="C943" t="n">
+        <v>94</v>
+      </c>
+      <c r="D943" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E943" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0.00126</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>70</v>
+      </c>
+      <c r="B944" s="1" t="n">
+        <v>0.7715304089814814</v>
+      </c>
+      <c r="C944" t="n">
+        <v>94</v>
+      </c>
+      <c r="D944" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E944" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>71</v>
+      </c>
+      <c r="B945" s="1" t="n">
+        <v>0.7722239074768519</v>
+      </c>
+      <c r="C945" t="n">
+        <v>94</v>
+      </c>
+      <c r="D945" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E945" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>72</v>
+      </c>
+      <c r="B946" s="1" t="n">
+        <v>0.7729183411342592</v>
+      </c>
+      <c r="C946" t="n">
+        <v>94</v>
+      </c>
+      <c r="D946" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E946" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>73</v>
+      </c>
+      <c r="B947" s="1" t="n">
+        <v>0.7736120139699074</v>
+      </c>
+      <c r="C947" t="n">
+        <v>94</v>
+      </c>
+      <c r="D947" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E947" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>74</v>
+      </c>
+      <c r="B948" s="1" t="n">
+        <v>0.7743061240393518</v>
+      </c>
+      <c r="C948" t="n">
+        <v>94</v>
+      </c>
+      <c r="D948" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E948" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>75</v>
+      </c>
+      <c r="B949" s="1" t="n">
+        <v>0.7750004807638889</v>
+      </c>
+      <c r="C949" t="n">
+        <v>94</v>
+      </c>
+      <c r="D949" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E949" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>76</v>
+      </c>
+      <c r="B950" s="1" t="n">
+        <v>0.7756941647685185</v>
+      </c>
+      <c r="C950" t="n">
+        <v>94</v>
+      </c>
+      <c r="D950" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E950" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>77</v>
+      </c>
+      <c r="B951" s="1" t="n">
+        <v>0.7763886091319445</v>
+      </c>
+      <c r="C951" t="n">
+        <v>94</v>
+      </c>
+      <c r="D951" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E951" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>78</v>
+      </c>
+      <c r="B952" s="1" t="n">
+        <v>0.777082848738426</v>
+      </c>
+      <c r="C952" t="n">
+        <v>94</v>
+      </c>
+      <c r="D952" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E952" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F952" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>79</v>
+      </c>
+      <c r="B953" s="1" t="n">
+        <v>0.7777773521412037</v>
+      </c>
+      <c r="C953" t="n">
+        <v>94</v>
+      </c>
+      <c r="D953" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E953" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0.00126</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>80</v>
+      </c>
+      <c r="B954" s="1" t="n">
+        <v>0.7784716824768518</v>
+      </c>
+      <c r="C954" t="n">
+        <v>94</v>
+      </c>
+      <c r="D954" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E954" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0.00144</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>81</v>
+      </c>
+      <c r="B955" s="1" t="n">
+        <v>0.7791647441550926</v>
+      </c>
+      <c r="C955" t="n">
+        <v>94</v>
+      </c>
+      <c r="D955" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E955" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F955" t="n">
+        <v>0.00162</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>82</v>
+      </c>
+      <c r="B956" s="1" t="n">
+        <v>0.7798588775925925</v>
+      </c>
+      <c r="C956" t="n">
+        <v>94</v>
+      </c>
+      <c r="D956" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E956" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>83</v>
+      </c>
+      <c r="B957" s="1" t="n">
+        <v>0.7805533228819445</v>
+      </c>
+      <c r="C957" t="n">
+        <v>94</v>
+      </c>
+      <c r="D957" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E957" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>84</v>
+      </c>
+      <c r="B958" s="1" t="n">
+        <v>0.7812467420023148</v>
+      </c>
+      <c r="C958" t="n">
+        <v>94</v>
+      </c>
+      <c r="D958" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E958" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>85</v>
+      </c>
+      <c r="B959" s="1" t="n">
+        <v>0.7819410029398147</v>
+      </c>
+      <c r="C959" t="n">
+        <v>94</v>
+      </c>
+      <c r="D959" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E959" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>86</v>
+      </c>
+      <c r="B960" s="1" t="n">
+        <v>0.7826353084837963</v>
+      </c>
+      <c r="C960" t="n">
+        <v>94</v>
+      </c>
+      <c r="D960" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E960" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>87</v>
+      </c>
+      <c r="B961" s="1" t="n">
+        <v>0.7833293645717593</v>
+      </c>
+      <c r="C961" t="n">
+        <v>94</v>
+      </c>
+      <c r="D961" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E961" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>88</v>
+      </c>
+      <c r="B962" s="1" t="n">
+        <v>0.7840233147337963</v>
+      </c>
+      <c r="C962" t="n">
+        <v>94</v>
+      </c>
+      <c r="D962" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E962" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>89</v>
+      </c>
+      <c r="B963" s="1" t="n">
+        <v>0.7847174833564815</v>
+      </c>
+      <c r="C963" t="n">
+        <v>94</v>
+      </c>
+      <c r="D963" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E963" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>90</v>
+      </c>
+      <c r="B964" s="1" t="n">
+        <v>0.7854120319560185</v>
+      </c>
+      <c r="C964" t="n">
+        <v>94</v>
+      </c>
+      <c r="D964" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E964" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>91</v>
+      </c>
+      <c r="B965" s="1" t="n">
+        <v>0.7861052350462963</v>
+      </c>
+      <c r="C965" t="n">
+        <v>94</v>
+      </c>
+      <c r="D965" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E965" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>92</v>
+      </c>
+      <c r="B966" s="1" t="n">
+        <v>0.7867996108680555</v>
+      </c>
+      <c r="C966" t="n">
+        <v>94</v>
+      </c>
+      <c r="D966" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E966" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>93</v>
+      </c>
+      <c r="B967" s="1" t="n">
+        <v>0.7874937901504629</v>
+      </c>
+      <c r="C967" t="n">
+        <v>94</v>
+      </c>
+      <c r="D967" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E967" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>94</v>
+      </c>
+      <c r="B968" s="1" t="n">
+        <v>0.7881876130902778</v>
+      </c>
+      <c r="C968" t="n">
+        <v>94</v>
+      </c>
+      <c r="D968" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E968" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>95</v>
+      </c>
+      <c r="B969" s="1" t="n">
+        <v>0.7888817135648147</v>
+      </c>
+      <c r="C969" t="n">
+        <v>94</v>
+      </c>
+      <c r="D969" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E969" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0.00234</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>96</v>
+      </c>
+      <c r="B970" s="1" t="n">
+        <v>0.7895759503472223</v>
+      </c>
+      <c r="C970" t="n">
+        <v>94</v>
+      </c>
+      <c r="D970" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E970" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>98</v>
+      </c>
+      <c r="B971" s="1" t="n">
+        <v>0.7909640699189815</v>
+      </c>
+      <c r="C971" t="n">
+        <v>94</v>
+      </c>
+      <c r="D971" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E971" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>99</v>
+      </c>
+      <c r="B972" s="1" t="n">
+        <v>0.7916585749421297</v>
+      </c>
+      <c r="C972" t="n">
+        <v>94</v>
+      </c>
+      <c r="D972" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E972" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>100</v>
+      </c>
+      <c r="B973" s="1" t="n">
+        <v>0.7923534692939815</v>
+      </c>
+      <c r="C973" t="n">
+        <v>94</v>
+      </c>
+      <c r="D973" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E973" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0.00144</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>101</v>
+      </c>
+      <c r="B974" s="1" t="n">
+        <v>0.7930462750347221</v>
+      </c>
+      <c r="C974" t="n">
+        <v>94</v>
+      </c>
+      <c r="D974" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E974" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0.00126</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>103</v>
+      </c>
+      <c r="B975" s="1" t="n">
+        <v>0.7944338820717592</v>
+      </c>
+      <c r="C975" t="n">
+        <v>94</v>
+      </c>
+      <c r="D975" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E975" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0.00126</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>104</v>
+      </c>
+      <c r="B976" s="1" t="n">
+        <v>0.7951284647106481</v>
+      </c>
+      <c r="C976" t="n">
+        <v>94</v>
+      </c>
+      <c r="D976" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E976" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F976" t="n">
+        <v>0.00126</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>107</v>
+      </c>
+      <c r="B977" s="1" t="n">
+        <v>0.7972105485185185</v>
+      </c>
+      <c r="C977" t="n">
+        <v>94</v>
+      </c>
+      <c r="D977" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E977" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0.00162</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>108</v>
+      </c>
+      <c r="B978" s="1" t="n">
+        <v>0.7979049810069445</v>
+      </c>
+      <c r="C978" t="n">
+        <v>94</v>
+      </c>
+      <c r="D978" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E978" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F978" t="n">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>109</v>
+      </c>
+      <c r="B979" s="1" t="n">
+        <v>0.7985987347222223</v>
+      </c>
+      <c r="C979" t="n">
+        <v>94</v>
+      </c>
+      <c r="D979" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E979" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>110</v>
+      </c>
+      <c r="B980" s="1" t="n">
+        <v>0.7992927755439814</v>
+      </c>
+      <c r="C980" t="n">
+        <v>94</v>
+      </c>
+      <c r="D980" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E980" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>111</v>
+      </c>
+      <c r="B981" s="1" t="n">
+        <v>0.7999868167592592</v>
+      </c>
+      <c r="C981" t="n">
+        <v>94</v>
+      </c>
+      <c r="D981" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E981" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>112</v>
+      </c>
+      <c r="B982" s="1" t="n">
+        <v>0.8006806152777778</v>
+      </c>
+      <c r="C982" t="n">
+        <v>94</v>
+      </c>
+      <c r="D982" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E982" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F982" t="n">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>114</v>
+      </c>
+      <c r="B983" s="1" t="n">
+        <v>0.8020691138310185</v>
+      </c>
+      <c r="C983" t="n">
+        <v>94</v>
+      </c>
+      <c r="D983" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E983" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F983" t="n">
+        <v>0.00144</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>115</v>
+      </c>
+      <c r="B984" s="1" t="n">
+        <v>0.8027630174189815</v>
+      </c>
+      <c r="C984" t="n">
+        <v>94</v>
+      </c>
+      <c r="D984" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E984" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0.00144</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>117</v>
+      </c>
+      <c r="B985" s="1" t="n">
+        <v>0.804151308587963</v>
+      </c>
+      <c r="C985" t="n">
+        <v>94</v>
+      </c>
+      <c r="D985" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E985" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0.00126</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>118</v>
+      </c>
+      <c r="B986" s="1" t="n">
+        <v>0.8048451640740741</v>
+      </c>
+      <c r="C986" t="n">
+        <v>94</v>
+      </c>
+      <c r="D986" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E986" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F986" t="n">
+        <v>0.00126</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>120</v>
+      </c>
+      <c r="B987" s="1" t="n">
+        <v>0.8062331872453704</v>
+      </c>
+      <c r="C987" t="n">
+        <v>94</v>
+      </c>
+      <c r="D987" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E987" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>121</v>
+      </c>
+      <c r="B988" s="1" t="n">
+        <v>0.8069275675578703</v>
+      </c>
+      <c r="C988" t="n">
+        <v>94</v>
+      </c>
+      <c r="D988" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E988" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>122</v>
+      </c>
+      <c r="B989" s="1" t="n">
+        <v>0.8076215630671297</v>
+      </c>
+      <c r="C989" t="n">
+        <v>94</v>
+      </c>
+      <c r="D989" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E989" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>123</v>
+      </c>
+      <c r="B990" s="1" t="n">
+        <v>0.808315259375</v>
+      </c>
+      <c r="C990" t="n">
+        <v>94</v>
+      </c>
+      <c r="D990" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E990" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F990" t="n">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>124</v>
+      </c>
+      <c r="B991" s="1" t="n">
+        <v>0.8090097577546296</v>
+      </c>
+      <c r="C991" t="n">
+        <v>94</v>
+      </c>
+      <c r="D991" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E991" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>126</v>
+      </c>
+      <c r="B992" s="1" t="n">
+        <v>0.8103975747685185</v>
+      </c>
+      <c r="C992" t="n">
+        <v>94</v>
+      </c>
+      <c r="D992" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E992" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>127</v>
+      </c>
+      <c r="B993" s="1" t="n">
+        <v>0.8110921834722222</v>
+      </c>
+      <c r="C993" t="n">
+        <v>94</v>
+      </c>
+      <c r="D993" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E993" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>128</v>
+      </c>
+      <c r="B994" s="1" t="n">
+        <v>0.8117858535300926</v>
+      </c>
+      <c r="C994" t="n">
+        <v>94</v>
+      </c>
+      <c r="D994" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E994" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F994" t="n">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>130</v>
+      </c>
+      <c r="B995" s="1" t="n">
+        <v>0.8131742068634259</v>
+      </c>
+      <c r="C995" t="n">
+        <v>94</v>
+      </c>
+      <c r="D995" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E995" t="n">
+        <v>0</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>132</v>
+      </c>
+      <c r="B996" s="1" t="n">
+        <v>0.8145628335763888</v>
+      </c>
+      <c r="C996" t="n">
+        <v>94</v>
+      </c>
+      <c r="D996" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E996" t="n">
+        <v>0</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>134</v>
+      </c>
+      <c r="B997" s="1" t="n">
+        <v>0.8159500575925925</v>
+      </c>
+      <c r="C997" t="n">
+        <v>94</v>
+      </c>
+      <c r="D997" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E997" t="n">
+        <v>0</v>
+      </c>
+      <c r="F997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>135</v>
+      </c>
+      <c r="B998" s="1" t="n">
+        <v>0.8166444944907407</v>
+      </c>
+      <c r="C998" t="n">
+        <v>94</v>
+      </c>
+      <c r="D998" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E998" t="n">
+        <v>0</v>
+      </c>
+      <c r="F998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>136</v>
+      </c>
+      <c r="B999" s="1" t="n">
+        <v>0.8173383511226852</v>
+      </c>
+      <c r="C999" t="n">
+        <v>94</v>
+      </c>
+      <c r="D999" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E999" t="n">
+        <v>0</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>139</v>
+      </c>
+      <c r="B1000" s="1" t="n">
+        <v>0.8194204661805556</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>140</v>
+      </c>
+      <c r="B1001" s="1" t="n">
+        <v>0.8201151298148148</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>141</v>
+      </c>
+      <c r="B1002" s="1" t="n">
+        <v>0.8208100819328704</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>142</v>
+      </c>
+      <c r="B1003" s="1" t="n">
+        <v>0.8215030892476852</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>145</v>
+      </c>
+      <c r="B1004" s="1" t="n">
+        <v>0.823584970462963</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>148</v>
+      </c>
+      <c r="B1005" s="1" t="n">
+        <v>0.8256671040046297</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>149</v>
+      </c>
+      <c r="B1006" s="1" t="n">
+        <v>0.8263614787962964</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>150</v>
+      </c>
+      <c r="B1007" s="1" t="n">
+        <v>0.8270554380208333</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>151</v>
+      </c>
+      <c r="B1008" s="1" t="n">
+        <v>0.8277491089120371</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>152</v>
+      </c>
+      <c r="B1009" s="1" t="n">
+        <v>0.8284446836458332</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>153</v>
+      </c>
+      <c r="B1010" s="1" t="n">
+        <v>0.8291375577777778</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>156</v>
+      </c>
+      <c r="B1011" s="1" t="n">
+        <v>0.8312195871064815</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>158</v>
+      </c>
+      <c r="B1012" s="1" t="n">
+        <v>0.8326076391666666</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>159</v>
+      </c>
+      <c r="B1013" s="1" t="n">
+        <v>0.833302015300926</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>160</v>
+      </c>
+      <c r="B1014" s="1" t="n">
+        <v>0.8339959517824075</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>162</v>
+      </c>
+      <c r="B1015" s="1" t="n">
+        <v>0.8353840034837964</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>163</v>
+      </c>
+      <c r="B1016" s="1" t="n">
+        <v>0.8360779030208333</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>164</v>
+      </c>
+      <c r="B1017" s="1" t="n">
+        <v>0.8367723912384259</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>165</v>
+      </c>
+      <c r="B1018" s="1" t="n">
+        <v>0.837466708761574</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>166</v>
+      </c>
+      <c r="B1019" s="1" t="n">
+        <v>0.8381605881597223</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>169</v>
+      </c>
+      <c r="B1020" s="1" t="n">
+        <v>0.8402425626504629</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>170</v>
+      </c>
+      <c r="B1021" s="1" t="n">
+        <v>0.8409378732870371</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>171</v>
+      </c>
+      <c r="B1022" s="1" t="n">
+        <v>0.8416307801851851</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>173</v>
+      </c>
+      <c r="B1023" s="1" t="n">
+        <v>0.843019964224537</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>175</v>
+      </c>
+      <c r="B1024" s="1" t="n">
+        <v>0.8444071384027778</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>177</v>
+      </c>
+      <c r="B1025" s="1" t="n">
+        <v>0.8457955602777777</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>178</v>
+      </c>
+      <c r="B1026" s="1" t="n">
+        <v>0.8464892186805555</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>179</v>
+      </c>
+      <c r="B1027" s="1" t="n">
+        <v>0.8471836556365742</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>180</v>
+      </c>
+      <c r="B1028" s="1" t="n">
+        <v>0.8478773598032407</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>181</v>
+      </c>
+      <c r="B1029" s="1" t="n">
+        <v>0.8485715248148148</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>182</v>
+      </c>
+      <c r="B1030" s="1" t="n">
+        <v>0.8492659115625</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>183</v>
+      </c>
+      <c r="B1031" s="1" t="n">
+        <v>0.8499596026388889</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>184</v>
+      </c>
+      <c r="B1032" s="1" t="n">
+        <v>0.8506547525578705</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>185</v>
+      </c>
+      <c r="B1033" s="1" t="n">
+        <v>0.8513478315740741</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>187</v>
+      </c>
+      <c r="B1034" s="1" t="n">
+        <v>0.8527358288541667</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>188</v>
+      </c>
+      <c r="B1035" s="1" t="n">
+        <v>0.8534302768171296</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>189</v>
+      </c>
+      <c r="B1036" s="1" t="n">
+        <v>0.8541248235069445</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>190</v>
+      </c>
+      <c r="B1037" s="1" t="n">
+        <v>0.8548184593402778</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>191</v>
+      </c>
+      <c r="B1038" s="1" t="n">
+        <v>0.8555124303125</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>192</v>
+      </c>
+      <c r="B1039" s="1" t="n">
+        <v>0.8562063082523148</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>193</v>
+      </c>
+      <c r="B1040" s="1" t="n">
+        <v>0.8569011192361111</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>194</v>
+      </c>
+      <c r="B1041" s="1" t="n">
+        <v>0.8575947856597221</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>195</v>
+      </c>
+      <c r="B1042" s="1" t="n">
+        <v>0.8582884646875</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>196</v>
+      </c>
+      <c r="B1043" s="1" t="n">
+        <v>0.8589828718287036</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>197</v>
+      </c>
+      <c r="B1044" s="1" t="n">
+        <v>0.8596766903819445</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>198</v>
+      </c>
+      <c r="B1045" s="1" t="n">
+        <v>0.860370896388889</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>199</v>
+      </c>
+      <c r="B1046" s="1" t="n">
+        <v>0.8610649555787037</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>200</v>
+      </c>
+      <c r="B1047" s="1" t="n">
+        <v>0.8617589568402777</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>201</v>
+      </c>
+      <c r="B1048" s="1" t="n">
+        <v>0.8624532958217592</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>202</v>
+      </c>
+      <c r="B1049" s="1" t="n">
+        <v>0.8631469394097222</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>203</v>
+      </c>
+      <c r="B1050" s="1" t="n">
+        <v>0.8638411157638888</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>204</v>
+      </c>
+      <c r="B1051" s="1" t="n">
+        <v>0.864535165</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>205</v>
+      </c>
+      <c r="B1052" s="1" t="n">
+        <v>0.8652294900578703</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>206</v>
+      </c>
+      <c r="B1053" s="1" t="n">
+        <v>0.8659234443518519</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>207</v>
+      </c>
+      <c r="B1054" s="1" t="n">
+        <v>0.8666173869560185</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>208</v>
+      </c>
+      <c r="B1055" s="1" t="n">
+        <v>0.8673115950347222</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>209</v>
+      </c>
+      <c r="B1056" s="1" t="n">
+        <v>0.868005769837963</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>210</v>
+      </c>
+      <c r="B1057" s="1" t="n">
+        <v>0.8686998736805555</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>211</v>
+      </c>
+      <c r="B1058" s="1" t="n">
+        <v>0.8693936093055555</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>212</v>
+      </c>
+      <c r="B1059" s="1" t="n">
+        <v>0.8700878518981482</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>213</v>
+      </c>
+      <c r="B1060" s="1" t="n">
+        <v>0.8707824294328704</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>214</v>
+      </c>
+      <c r="B1061" s="1" t="n">
+        <v>0.8714759101967593</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>215</v>
+      </c>
+      <c r="B1062" s="1" t="n">
+        <v>0.8721762852777778</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>216</v>
+      </c>
+      <c r="B1063" s="1" t="n">
+        <v>0.8728646885763889</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>217</v>
+      </c>
+      <c r="B1064" s="1" t="n">
+        <v>0.8735585633333334</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>218</v>
+      </c>
+      <c r="B1065" s="1" t="n">
+        <v>0.8742524619444445</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>219</v>
+      </c>
+      <c r="B1066" s="1" t="n">
+        <v>0.8749464390393519</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>220</v>
+      </c>
+      <c r="B1067" s="1" t="n">
+        <v>0.8756404746990741</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>221</v>
+      </c>
+      <c r="B1068" s="1" t="n">
+        <v>0.8763344292245371</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>222</v>
+      </c>
+      <c r="B1069" s="1" t="n">
+        <v>0.8770288216666666</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>223</v>
+      </c>
+      <c r="B1070" s="1" t="n">
+        <v>0.8777226718055556</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>224</v>
+      </c>
+      <c r="B1071" s="1" t="n">
+        <v>0.8784169944097222</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>225</v>
+      </c>
+      <c r="B1072" s="1" t="n">
+        <v>0.8791105691203704</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>226</v>
+      </c>
+      <c r="B1073" s="1" t="n">
+        <v>0.8798049069675926</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>227</v>
+      </c>
+      <c r="B1074" s="1" t="n">
+        <v>0.8804987244560186</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>228</v>
+      </c>
+      <c r="B1075" s="1" t="n">
+        <v>0.8811938853356482</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>229</v>
+      </c>
+      <c r="B1076" s="1" t="n">
+        <v>0.8818885947569445</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1077" s="1" t="n">
+        <v>0.8825811753472222</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>231</v>
+      </c>
+      <c r="B1078" s="1" t="n">
+        <v>0.8832749415509259</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>232</v>
+      </c>
+      <c r="B1079" s="1" t="n">
+        <v>0.8839689318402777</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>233</v>
+      </c>
+      <c r="B1080" s="1" t="n">
+        <v>0.8846640237268519</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>234</v>
+      </c>
+      <c r="B1081" s="1" t="n">
+        <v>0.885357830173611</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>235</v>
+      </c>
+      <c r="B1082" s="1" t="n">
+        <v>0.8860517383796297</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>236</v>
+      </c>
+      <c r="B1083" s="1" t="n">
+        <v>0.8867459479861112</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>237</v>
+      </c>
+      <c r="B1084" s="1" t="n">
+        <v>0.8874398087268518</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>238</v>
+      </c>
+      <c r="B1085" s="1" t="n">
+        <v>0.8881339305208333</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>239</v>
+      </c>
+      <c r="B1086" s="1" t="n">
+        <v>0.8888274569097222</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>240</v>
+      </c>
+      <c r="B1087" s="1" t="n">
+        <v>0.8895215592013889</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>241</v>
+      </c>
+      <c r="B1088" s="1" t="n">
+        <v>0.8902169818634259</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>242</v>
+      </c>
+      <c r="B1089" s="1" t="n">
+        <v>0.8909097004050927</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>243</v>
+      </c>
+      <c r="B1090" s="1" t="n">
+        <v>0.8916037910416668</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>244</v>
+      </c>
+      <c r="B1091" s="1" t="n">
+        <v>0.8922983209027778</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>245</v>
+      </c>
+      <c r="B1092" s="1" t="n">
+        <v>0.8929922514699073</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>246</v>
+      </c>
+      <c r="B1093" s="1" t="n">
+        <v>0.8936859844907408</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>247</v>
+      </c>
+      <c r="B1094" s="1" t="n">
+        <v>0.8943801589236111</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>248</v>
+      </c>
+      <c r="B1095" s="1" t="n">
+        <v>0.8950743656134259</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>249</v>
+      </c>
+      <c r="B1096" s="1" t="n">
+        <v>0.895768272175926</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>250</v>
+      </c>
+      <c r="B1097" s="1" t="n">
+        <v>0.8964622382523149</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>251</v>
+      </c>
+      <c r="B1098" s="1" t="n">
+        <v>0.8971568505439814</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>252</v>
+      </c>
+      <c r="B1099" s="1" t="n">
+        <v>0.8978511211458334</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>253</v>
+      </c>
+      <c r="B1100" s="1" t="n">
+        <v>0.898544959675926</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>254</v>
+      </c>
+      <c r="B1101" s="1" t="n">
+        <v>0.8992385250347221</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1102" s="1" t="n">
+        <v>0.899933356712963</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1103" s="1" t="n">
+        <v>0.900627150625</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1104" s="1" t="n">
+        <v>0.9013213367013889</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1105" s="1" t="n">
+        <v>0.9020151310532408</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1106" s="1" t="n">
+        <v>0.9027091887384259</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1107" s="1" t="n">
+        <v>0.9034031079282407</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1108" s="1" t="n">
+        <v>0.9040974412847221</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1109" s="1" t="n">
+        <v>0.9047913378819444</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1110" s="1" t="n">
+        <v>0.9054857298263889</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1111" s="1" t="n">
+        <v>0.9061796732638888</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1112" s="1" t="n">
+        <v>0.9068734919444444</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1113" s="1" t="n">
+        <v>0.9075704793634258</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1114" s="1" t="n">
+        <v>0.9082616282754629</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1115" s="1" t="n">
+        <v>0.9089557771412036</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>14</v>
+      </c>
+      <c r="B1116" s="1" t="n">
+        <v>0.9096494985069444</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>15</v>
+      </c>
+      <c r="B1117" s="1" t="n">
+        <v>0.9103438997222222</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1118" s="1" t="n">
+        <v>0.9110384059143519</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1119" s="1" t="n">
+        <v>0.9117319307175926</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1120" s="1" t="n">
+        <v>0.9124262197222223</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>19</v>
+      </c>
+      <c r="B1121" s="1" t="n">
+        <v>0.9131202379861112</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1122" s="1" t="n">
+        <v>0.9138140741087963</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1123" s="1" t="n">
+        <v>0.9145084900578704</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1124" s="1" t="n">
+        <v>0.9152020740856482</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1125" s="1" t="n">
+        <v>0.9158962564236111</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1126" s="1" t="n">
+        <v>0.9165906148726851</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1127" s="1" t="n">
+        <v>0.9172857679745371</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1128" s="1" t="n">
+        <v>0.9179802742129629</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>27</v>
+      </c>
+      <c r="B1129" s="1" t="n">
+        <v>0.9186735684722223</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1130" s="1" t="n">
+        <v>0.9193686964583333</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1131" s="1" t="n">
+        <v>0.9200623390740741</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1132" s="1" t="n">
+        <v>0.9207557250810186</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1133" s="1" t="n">
+        <v>0.9214496420023148</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1134" s="1" t="n">
+        <v>0.9221444004282408</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1135" s="1" t="n">
+        <v>0.9228378682175926</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1136" s="1" t="n">
+        <v>0.9235326882986111</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1137" s="1" t="n">
+        <v>0.924225834537037</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1138" s="1" t="n">
+        <v>0.9249239479861111</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>37</v>
+      </c>
+      <c r="B1139" s="1" t="n">
+        <v>0.9256146433217594</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>38</v>
+      </c>
+      <c r="B1140" s="1" t="n">
+        <v>0.9263085623842593</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>39</v>
+      </c>
+      <c r="B1141" s="1" t="n">
+        <v>0.9270029076736112</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>40</v>
+      </c>
+      <c r="B1142" s="1" t="n">
+        <v>0.9276968364467592</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>41</v>
+      </c>
+      <c r="B1143" s="1" t="n">
+        <v>0.9283904882175926</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>42</v>
+      </c>
+      <c r="B1144" s="1" t="n">
+        <v>0.9290845431597223</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>43</v>
+      </c>
+      <c r="B1145" s="1" t="n">
+        <v>0.9297791051041666</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>44</v>
+      </c>
+      <c r="B1146" s="1" t="n">
+        <v>0.9304724588541667</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>45</v>
+      </c>
+      <c r="B1147" s="1" t="n">
+        <v>0.9311671277199075</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>46</v>
+      </c>
+      <c r="B1148" s="1" t="n">
+        <v>0.9318631259143519</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>47</v>
+      </c>
+      <c r="B1149" s="1" t="n">
+        <v>0.9325551836458333</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>48</v>
+      </c>
+      <c r="B1150" s="1" t="n">
+        <v>0.9332498532060185</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>49</v>
+      </c>
+      <c r="B1151" s="1" t="n">
+        <v>0.9339426391898148</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>50</v>
+      </c>
+      <c r="B1152" s="1" t="n">
+        <v>0.934637458287037</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>52</v>
+      </c>
+      <c r="B1153" s="1" t="n">
+        <v>0.9360271538310184</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>53</v>
+      </c>
+      <c r="B1154" s="1" t="n">
+        <v>0.936720804074074</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>54</v>
+      </c>
+      <c r="B1155" s="1" t="n">
+        <v>0.9374129564236111</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>55</v>
+      </c>
+      <c r="B1156" s="1" t="n">
+        <v>0.938107959849537</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>56</v>
+      </c>
+      <c r="B1157" s="1" t="n">
+        <v>0.9388019361574075</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>57</v>
+      </c>
+      <c r="B1158" s="1" t="n">
+        <v>0.9394945133101852</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>58</v>
+      </c>
+      <c r="B1159" s="1" t="n">
+        <v>0.9401887769675925</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>59</v>
+      </c>
+      <c r="B1160" s="1" t="n">
+        <v>0.9408826700347221</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>60</v>
+      </c>
+      <c r="B1161" s="1" t="n">
+        <v>0.9415769823263889</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>61</v>
+      </c>
+      <c r="B1162" s="1" t="n">
+        <v>0.9422709360763889</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>62</v>
+      </c>
+      <c r="B1163" s="1" t="n">
+        <v>0.9429654761574073</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>63</v>
+      </c>
+      <c r="B1164" s="1" t="n">
+        <v>0.9436600501388889</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>64</v>
+      </c>
+      <c r="B1165" s="1" t="n">
+        <v>0.9443530553356481</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>65</v>
+      </c>
+      <c r="B1166" s="1" t="n">
+        <v>0.9450473748726853</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>66</v>
+      </c>
+      <c r="B1167" s="1" t="n">
+        <v>0.9457418235185185</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>67</v>
+      </c>
+      <c r="B1168" s="1" t="n">
+        <v>0.9464355798842593</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>68</v>
+      </c>
+      <c r="B1169" s="1" t="n">
+        <v>0.9471296227430555</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>69</v>
+      </c>
+      <c r="B1170" s="1" t="n">
+        <v>0.9478235265046296</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>70</v>
+      </c>
+      <c r="B1171" s="1" t="n">
+        <v>0.9485174534143518</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>71</v>
+      </c>
+      <c r="B1172" s="1" t="n">
+        <v>0.9492124419212963</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>72</v>
+      </c>
+      <c r="B1173" s="1" t="n">
+        <v>0.9499057282986112</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>73</v>
+      </c>
+      <c r="B1174" s="1" t="n">
+        <v>0.9506003144328704</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>74</v>
+      </c>
+      <c r="B1175" s="1" t="n">
+        <v>0.9512941287731482</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>75</v>
+      </c>
+      <c r="B1176" s="1" t="n">
+        <v>0.9519878734722221</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>76</v>
+      </c>
+      <c r="B1177" s="1" t="n">
+        <v>0.9526826686111111</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>77</v>
+      </c>
+      <c r="B1178" s="1" t="n">
+        <v>0.9533759396064815</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>78</v>
+      </c>
+      <c r="B1179" s="1" t="n">
+        <v>0.9540713580671297</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>79</v>
+      </c>
+      <c r="B1180" s="1" t="n">
+        <v>0.9547641306712964</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>80</v>
+      </c>
+      <c r="B1181" s="1" t="n">
+        <v>0.9554583613657407</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>81</v>
+      </c>
+      <c r="B1182" s="1" t="n">
+        <v>0.9561523799652778</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>82</v>
+      </c>
+      <c r="B1183" s="1" t="n">
+        <v>0.9568465832754629</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>83</v>
+      </c>
+      <c r="B1184" s="1" t="n">
+        <v>0.9575403013310184</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>84</v>
+      </c>
+      <c r="B1185" s="1" t="n">
+        <v>0.9582344393634259</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>85</v>
+      </c>
+      <c r="B1186" s="1" t="n">
+        <v>0.95892892</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>86</v>
+      </c>
+      <c r="B1187" s="1" t="n">
+        <v>0.9596227783796296</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>87</v>
+      </c>
+      <c r="B1188" s="1" t="n">
+        <v>0.9603167628356482</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>88</v>
+      </c>
+      <c r="B1189" s="1" t="n">
+        <v>0.9610110017708333</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>89</v>
+      </c>
+      <c r="B1190" s="1" t="n">
+        <v>0.9617050108564815</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>90</v>
+      </c>
+      <c r="B1191" s="1" t="n">
+        <v>0.9623988703587963</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>91</v>
+      </c>
+      <c r="B1192" s="1" t="n">
+        <v>0.9630929821180556</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>92</v>
+      </c>
+      <c r="B1193" s="1" t="n">
+        <v>0.9637872312384259</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>93</v>
+      </c>
+      <c r="B1194" s="1" t="n">
+        <v>0.9644812755671297</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>94</v>
+      </c>
+      <c r="B1195" s="1" t="n">
+        <v>0.9651753401041666</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>95</v>
+      </c>
+      <c r="B1196" s="1" t="n">
+        <v>0.9658698333101853</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>96</v>
+      </c>
+      <c r="B1197" s="1" t="n">
+        <v>0.9665634271990741</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>97</v>
+      </c>
+      <c r="B1198" s="1" t="n">
+        <v>0.9672573098032408</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>98</v>
+      </c>
+      <c r="B1199" s="1" t="n">
+        <v>0.9679523677777777</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>99</v>
+      </c>
+      <c r="B1200" s="1" t="n">
+        <v>0.9686493301157406</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1201" s="1" t="n">
+        <v>0.9693396202430555</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>101</v>
+      </c>
+      <c r="B1202" s="1" t="n">
+        <v>0.9700338983217593</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>102</v>
+      </c>
+      <c r="B1203" s="1" t="n">
+        <v>0.9707277441666666</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>103</v>
+      </c>
+      <c r="B1204" s="1" t="n">
+        <v>0.9714216028356482</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>104</v>
+      </c>
+      <c r="B1205" s="1" t="n">
+        <v>0.9721158653125</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>105</v>
+      </c>
+      <c r="B1206" s="1" t="n">
+        <v>0.9728100232175926</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>106</v>
+      </c>
+      <c r="B1207" s="1" t="n">
+        <v>0.973504101076389</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>107</v>
+      </c>
+      <c r="B1208" s="1" t="n">
+        <v>0.9741979850462963</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>108</v>
+      </c>
+      <c r="B1209" s="1" t="n">
+        <v>0.9748921196180556</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>109</v>
+      </c>
+      <c r="B1210" s="1" t="n">
+        <v>0.9755862415625</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>110</v>
+      </c>
+      <c r="B1211" s="1" t="n">
+        <v>0.9762802480555556</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>111</v>
+      </c>
+      <c r="B1212" s="1" t="n">
+        <v>0.9769745781828703</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>112</v>
+      </c>
+      <c r="B1213" s="1" t="n">
+        <v>0.9776687586458334</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>113</v>
+      </c>
+      <c r="B1214" s="1" t="n">
+        <v>0.9783628235185184</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>114</v>
+      </c>
+      <c r="B1215" s="1" t="n">
+        <v>0.9790565904282408</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>115</v>
+      </c>
+      <c r="B1216" s="1" t="n">
+        <v>0.9797508294560185</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>116</v>
+      </c>
+      <c r="B1217" s="1" t="n">
+        <v>0.980444777824074</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>117</v>
+      </c>
+      <c r="B1218" s="1" t="n">
+        <v>0.981138745925926</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>118</v>
+      </c>
+      <c r="B1219" s="1" t="n">
+        <v>0.9818331460532407</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>119</v>
+      </c>
+      <c r="B1220" s="1" t="n">
+        <v>0.9825269684490741</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>120</v>
+      </c>
+      <c r="B1221" s="1" t="n">
+        <v>0.9832209668402777</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>121</v>
+      </c>
+      <c r="B1222" s="1" t="n">
+        <v>0.9839154030902778</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>122</v>
+      </c>
+      <c r="B1223" s="1" t="n">
+        <v>0.9846088675115742</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>123</v>
+      </c>
+      <c r="B1224" s="1" t="n">
+        <v>0.9853033701967592</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>124</v>
+      </c>
+      <c r="B1225" s="1" t="n">
+        <v>0.9859974806365741</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>125</v>
+      </c>
+      <c r="B1226" s="1" t="n">
+        <v>0.9866918341203703</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>126</v>
+      </c>
+      <c r="B1227" s="1" t="n">
+        <v>0.9873856687037037</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>127</v>
+      </c>
+      <c r="B1228" s="1" t="n">
+        <v>0.9880793816319444</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>128</v>
+      </c>
+      <c r="B1229" s="1" t="n">
+        <v>0.988774290324074</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>129</v>
+      </c>
+      <c r="B1230" s="1" t="n">
+        <v>0.9894673866087964</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>130</v>
+      </c>
+      <c r="B1231" s="1" t="n">
+        <v>0.9901616937268518</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>131</v>
+      </c>
+      <c r="B1232" s="1" t="n">
+        <v>0.9908567752546297</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>133</v>
+      </c>
+      <c r="B1233" s="1" t="n">
+        <v>0.9922441356597221</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>134</v>
+      </c>
+      <c r="B1234" s="1" t="n">
+        <v>0.9929384880324075</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>135</v>
+      </c>
+      <c r="B1235" s="1" t="n">
+        <v>0.9936324733796297</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>136</v>
+      </c>
+      <c r="B1236" s="1" t="n">
+        <v>0.9943262724768519</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>137</v>
+      </c>
+      <c r="B1237" s="1" t="n">
+        <v>0.9950201306597223</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>138</v>
+      </c>
+      <c r="B1238" s="1" t="n">
+        <v>0.9957140494328703</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>139</v>
+      </c>
+      <c r="B1239" s="1" t="n">
+        <v>0.9964080961342592</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>140</v>
+      </c>
+      <c r="B1240" s="1" t="n">
+        <v>0.9971024266435184</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>141</v>
+      </c>
+      <c r="B1241" s="1" t="n">
+        <v>0.9977963752777778</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>142</v>
+      </c>
+      <c r="B1242" s="1" t="n">
+        <v>0.9984905320486112</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>143</v>
+      </c>
+      <c r="B1243" s="1" t="n">
+        <v>0.9991846538657408</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>144</v>
+      </c>
+      <c r="B1244" s="1" t="n">
+        <v>0.9998785212847222</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
